--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/71_CsvWithoutHeader.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/71_CsvWithoutHeader.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV No Header" sheetId="1" r:id="R093e0dff2dac41eb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV No Header" sheetId="1" r:id="R65f029fb6264442d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/71_CsvWithoutHeader.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/71_CsvWithoutHeader.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV No Header" sheetId="1" r:id="R65f029fb6264442d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV No Header" sheetId="1" r:id="R227dc716e1724e6a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -115,13 +115,13 @@
       </x:c>
     </x:row>
     <x:row r="2">
-      <x:c r="A2" s="2" t="str">
+      <x:c r="A2" s="2" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="2" t="str">
         <x:v>Simple text</x:v>
       </x:c>
-      <x:c r="C2" s="2" t="str">
+      <x:c r="C2" s="2" t="n">
         <x:v>275.0</x:v>
       </x:c>
       <x:c r="D2" s="2" t="str">
@@ -132,7 +132,7 @@
       </x:c>
     </x:row>
     <x:row r="3">
-      <x:c r="A3" s="2" t="str">
+      <x:c r="A3" s="2" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="B3" s="2" t="str">
@@ -149,7 +149,7 @@
       </x:c>
     </x:row>
     <x:row r="4">
-      <x:c r="A4" s="2" t="str">
+      <x:c r="A4" s="2" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="B4" s="2" t="str">
@@ -166,13 +166,13 @@
       </x:c>
     </x:row>
     <x:row r="5">
-      <x:c r="A5" s="2" t="str">
+      <x:c r="A5" s="2" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="B5" s="2" t="str">
         <x:v>Text with "quotes"</x:v>
       </x:c>
-      <x:c r="C5" s="2" t="str">
+      <x:c r="C5" s="2" t="n">
         <x:v>143.71</x:v>
       </x:c>
       <x:c r="D5" s="2" t="str">
@@ -183,13 +183,13 @@
       </x:c>
     </x:row>
     <x:row r="6">
-      <x:c r="A6" s="2" t="str">
+      <x:c r="A6" s="2" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="B6" s="2" t="str">
         <x:v>Text with "quotes"</x:v>
       </x:c>
-      <x:c r="C6" s="2" t="str">
+      <x:c r="C6" s="2" t="n">
         <x:v>11.65</x:v>
       </x:c>
       <x:c r="D6" s="2" t="str">
@@ -200,13 +200,13 @@
       </x:c>
     </x:row>
     <x:row r="7">
-      <x:c r="A7" s="2" t="str">
+      <x:c r="A7" s="2" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="B7" s="2" t="str">
         <x:v>Plain</x:v>
       </x:c>
-      <x:c r="C7" s="2" t="str">
+      <x:c r="C7" s="2" t="n">
         <x:v>383.82</x:v>
       </x:c>
       <x:c r="D7" s="2" t="str">
@@ -217,7 +217,7 @@
       </x:c>
     </x:row>
     <x:row r="8">
-      <x:c r="A8" s="2" t="str">
+      <x:c r="A8" s="2" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B8" s="2" t="str">
@@ -234,13 +234,13 @@
       </x:c>
     </x:row>
     <x:row r="9">
-      <x:c r="A9" s="2" t="str">
+      <x:c r="A9" s="2" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B9" s="2" t="str">
         <x:v>Text with "quotes"</x:v>
       </x:c>
-      <x:c r="C9" s="2" t="str">
+      <x:c r="C9" s="2" t="n">
         <x:v>134.99</x:v>
       </x:c>
       <x:c r="D9" s="2" t="str">
@@ -251,13 +251,13 @@
       </x:c>
     </x:row>
     <x:row r="10">
-      <x:c r="A10" s="2" t="str">
+      <x:c r="A10" s="2" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="B10" s="2" t="str">
         <x:v>"Quoted" at start</x:v>
       </x:c>
-      <x:c r="C10" s="2" t="str">
+      <x:c r="C10" s="2" t="n">
         <x:v>577.67</x:v>
       </x:c>
       <x:c r="D10" s="2" t="str">
@@ -268,7 +268,7 @@
       </x:c>
     </x:row>
     <x:row r="11">
-      <x:c r="A11" s="2" t="str">
+      <x:c r="A11" s="2" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B11" s="2" t="str">
@@ -285,13 +285,13 @@
       </x:c>
     </x:row>
     <x:row r="12">
-      <x:c r="A12" s="2" t="str">
+      <x:c r="A12" s="2" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="B12" s="2" t="str">
         <x:v>Ends with quote"</x:v>
       </x:c>
-      <x:c r="C12" s="2" t="str">
+      <x:c r="C12" s="2" t="n">
         <x:v>214.79</x:v>
       </x:c>
       <x:c r="D12" s="2" t="str">
@@ -302,7 +302,7 @@
       </x:c>
     </x:row>
     <x:row r="13">
-      <x:c r="A13" s="2" t="str">
+      <x:c r="A13" s="2" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="B13" s="2" t="str">
@@ -319,13 +319,13 @@
       </x:c>
     </x:row>
     <x:row r="14">
-      <x:c r="A14" s="2" t="str">
+      <x:c r="A14" s="2" t="n">
         <x:v>13</x:v>
       </x:c>
       <x:c r="B14" s="2" t="str">
         <x:v>Comma, then "quote"</x:v>
       </x:c>
-      <x:c r="C14" s="2" t="str">
+      <x:c r="C14" s="2" t="n">
         <x:v>671.79</x:v>
       </x:c>
       <x:c r="D14" s="2" t="str">
@@ -336,13 +336,13 @@
       </x:c>
     </x:row>
     <x:row r="15">
-      <x:c r="A15" s="2" t="str">
+      <x:c r="A15" s="2" t="n">
         <x:v>14</x:v>
       </x:c>
       <x:c r="B15" s="2" t="str">
         <x:v>Simple text</x:v>
       </x:c>
-      <x:c r="C15" s="2" t="str">
+      <x:c r="C15" s="2" t="n">
         <x:v>848.87</x:v>
       </x:c>
       <x:c r="D15" s="2" t="str">
@@ -353,13 +353,13 @@
       </x:c>
     </x:row>
     <x:row r="16">
-      <x:c r="A16" s="2" t="str">
+      <x:c r="A16" s="2" t="n">
         <x:v>15</x:v>
       </x:c>
       <x:c r="B16" s="2" t="str">
         <x:v>Ends with quote"</x:v>
       </x:c>
-      <x:c r="C16" s="2" t="str">
+      <x:c r="C16" s="2" t="n">
         <x:v>661.49</x:v>
       </x:c>
       <x:c r="D16" s="2" t="str">
@@ -370,13 +370,13 @@
       </x:c>
     </x:row>
     <x:row r="17">
-      <x:c r="A17" s="2" t="str">
+      <x:c r="A17" s="2" t="n">
         <x:v>16</x:v>
       </x:c>
       <x:c r="B17" s="2" t="str">
         <x:v>Hello, world</x:v>
       </x:c>
-      <x:c r="C17" s="2" t="str">
+      <x:c r="C17" s="2" t="n">
         <x:v>558.66</x:v>
       </x:c>
       <x:c r="D17" s="2" t="str">
@@ -387,13 +387,13 @@
       </x:c>
     </x:row>
     <x:row r="18">
-      <x:c r="A18" s="2" t="str">
+      <x:c r="A18" s="2" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="B18" s="2" t="str">
         <x:v>"Quoted" at start</x:v>
       </x:c>
-      <x:c r="C18" s="2" t="str">
+      <x:c r="C18" s="2" t="n">
         <x:v>577.44</x:v>
       </x:c>
       <x:c r="D18" s="2" t="str">
@@ -404,13 +404,13 @@
       </x:c>
     </x:row>
     <x:row r="19">
-      <x:c r="A19" s="2" t="str">
+      <x:c r="A19" s="2" t="n">
         <x:v>18</x:v>
       </x:c>
       <x:c r="B19" s="2" t="str">
         <x:v>Mixed, "comma and quotes"</x:v>
       </x:c>
-      <x:c r="C19" s="2" t="str">
+      <x:c r="C19" s="2" t="n">
         <x:v>590.34</x:v>
       </x:c>
       <x:c r="D19" s="2" t="str">
@@ -421,13 +421,13 @@
       </x:c>
     </x:row>
     <x:row r="20">
-      <x:c r="A20" s="2" t="str">
+      <x:c r="A20" s="2" t="n">
         <x:v>19</x:v>
       </x:c>
       <x:c r="B20" s="2" t="str">
         <x:v>Hello, world</x:v>
       </x:c>
-      <x:c r="C20" s="2" t="str">
+      <x:c r="C20" s="2" t="n">
         <x:v>997.58</x:v>
       </x:c>
       <x:c r="D20" s="2" t="str">
@@ -438,13 +438,13 @@
       </x:c>
     </x:row>
     <x:row r="21">
-      <x:c r="A21" s="2" t="str">
+      <x:c r="A21" s="2" t="n">
         <x:v>20</x:v>
       </x:c>
       <x:c r="B21" s="2" t="str">
         <x:v>Comma, then "quote"</x:v>
       </x:c>
-      <x:c r="C21" s="2" t="str">
+      <x:c r="C21" s="2" t="n">
         <x:v>726.43</x:v>
       </x:c>
       <x:c r="D21" s="2" t="str">
@@ -455,13 +455,13 @@
       </x:c>
     </x:row>
     <x:row r="22">
-      <x:c r="A22" s="2" t="str">
+      <x:c r="A22" s="2" t="n">
         <x:v>21</x:v>
       </x:c>
       <x:c r="B22" s="2" t="str">
         <x:v>Ends with quote"</x:v>
       </x:c>
-      <x:c r="C22" s="2" t="str">
+      <x:c r="C22" s="2" t="n">
         <x:v>964.42</x:v>
       </x:c>
       <x:c r="D22" s="2" t="str">
@@ -472,13 +472,13 @@
       </x:c>
     </x:row>
     <x:row r="23">
-      <x:c r="A23" s="2" t="str">
+      <x:c r="A23" s="2" t="n">
         <x:v>22</x:v>
       </x:c>
       <x:c r="B23" s="2" t="str">
         <x:v>Text with "quotes"</x:v>
       </x:c>
-      <x:c r="C23" s="2" t="str">
+      <x:c r="C23" s="2" t="n">
         <x:v>162.22</x:v>
       </x:c>
       <x:c r="D23" s="2" t="str">
@@ -489,13 +489,13 @@
       </x:c>
     </x:row>
     <x:row r="24">
-      <x:c r="A24" s="2" t="str">
+      <x:c r="A24" s="2" t="n">
         <x:v>23</x:v>
       </x:c>
       <x:c r="B24" s="2" t="str">
         <x:v>Ends with quote"</x:v>
       </x:c>
-      <x:c r="C24" s="2" t="str">
+      <x:c r="C24" s="2" t="n">
         <x:v>53.69</x:v>
       </x:c>
       <x:c r="D24" s="2" t="str">
@@ -506,13 +506,13 @@
       </x:c>
     </x:row>
     <x:row r="25">
-      <x:c r="A25" s="2" t="str">
+      <x:c r="A25" s="2" t="n">
         <x:v>24</x:v>
       </x:c>
       <x:c r="B25" s="2" t="str">
         <x:v>Mixed, "comma and quotes"</x:v>
       </x:c>
-      <x:c r="C25" s="2" t="str">
+      <x:c r="C25" s="2" t="n">
         <x:v>30.8</x:v>
       </x:c>
       <x:c r="D25" s="2" t="str">
@@ -523,13 +523,13 @@
       </x:c>
     </x:row>
     <x:row r="26">
-      <x:c r="A26" s="2" t="str">
+      <x:c r="A26" s="2" t="n">
         <x:v>25</x:v>
       </x:c>
       <x:c r="B26" s="2" t="str">
         <x:v>"Quoted" at start</x:v>
       </x:c>
-      <x:c r="C26" s="2" t="str">
+      <x:c r="C26" s="2" t="n">
         <x:v>637.93</x:v>
       </x:c>
       <x:c r="D26" s="2" t="str">
@@ -540,13 +540,13 @@
       </x:c>
     </x:row>
     <x:row r="27">
-      <x:c r="A27" s="2" t="str">
+      <x:c r="A27" s="2" t="n">
         <x:v>26</x:v>
       </x:c>
       <x:c r="B27" s="2" t="str">
         <x:v>Plain</x:v>
       </x:c>
-      <x:c r="C27" s="2" t="str">
+      <x:c r="C27" s="2" t="n">
         <x:v>71.98</x:v>
       </x:c>
       <x:c r="D27" s="2" t="str">
@@ -557,13 +557,13 @@
       </x:c>
     </x:row>
     <x:row r="28">
-      <x:c r="A28" s="2" t="str">
+      <x:c r="A28" s="2" t="n">
         <x:v>27</x:v>
       </x:c>
       <x:c r="B28" s="2" t="str">
         <x:v>Value with, comma</x:v>
       </x:c>
-      <x:c r="C28" s="2" t="str">
+      <x:c r="C28" s="2" t="n">
         <x:v>438.87</x:v>
       </x:c>
       <x:c r="D28" s="2" t="str">
@@ -574,7 +574,7 @@
       </x:c>
     </x:row>
     <x:row r="29">
-      <x:c r="A29" s="2" t="str">
+      <x:c r="A29" s="2" t="n">
         <x:v>28</x:v>
       </x:c>
       <x:c r="B29" s="2" t="str">
@@ -591,13 +591,13 @@
       </x:c>
     </x:row>
     <x:row r="30">
-      <x:c r="A30" s="2" t="str">
+      <x:c r="A30" s="2" t="n">
         <x:v>29</x:v>
       </x:c>
       <x:c r="B30" s="2" t="str">
         <x:v>Hello, world</x:v>
       </x:c>
-      <x:c r="C30" s="2" t="str">
+      <x:c r="C30" s="2" t="n">
         <x:v>269.91</x:v>
       </x:c>
       <x:c r="D30" s="2" t="str">
@@ -608,13 +608,13 @@
       </x:c>
     </x:row>
     <x:row r="31">
-      <x:c r="A31" s="2" t="str">
+      <x:c r="A31" s="2" t="n">
         <x:v>30</x:v>
       </x:c>
       <x:c r="B31" s="2" t="str">
         <x:v>Comma, then "quote"</x:v>
       </x:c>
-      <x:c r="C31" s="2" t="str">
+      <x:c r="C31" s="2" t="n">
         <x:v>341.48</x:v>
       </x:c>
       <x:c r="D31" s="2" t="str">
@@ -625,7 +625,7 @@
       </x:c>
     </x:row>
     <x:row r="32">
-      <x:c r="A32" s="2" t="str">
+      <x:c r="A32" s="2" t="n">
         <x:v>31</x:v>
       </x:c>
       <x:c r="B32" s="2" t="str">
@@ -642,13 +642,13 @@
       </x:c>
     </x:row>
     <x:row r="33">
-      <x:c r="A33" s="2" t="str">
+      <x:c r="A33" s="2" t="n">
         <x:v>32</x:v>
       </x:c>
       <x:c r="B33" s="2" t="str">
         <x:v>Text with "quotes"</x:v>
       </x:c>
-      <x:c r="C33" s="2" t="str">
+      <x:c r="C33" s="2" t="n">
         <x:v>378.39</x:v>
       </x:c>
       <x:c r="D33" s="2" t="str">
@@ -659,13 +659,13 @@
       </x:c>
     </x:row>
     <x:row r="34">
-      <x:c r="A34" s="2" t="str">
+      <x:c r="A34" s="2" t="n">
         <x:v>33</x:v>
       </x:c>
       <x:c r="B34" s="2" t="str">
         <x:v>Simple text</x:v>
       </x:c>
-      <x:c r="C34" s="2" t="str">
+      <x:c r="C34" s="2" t="n">
         <x:v>760.48</x:v>
       </x:c>
       <x:c r="D34" s="2" t="str">
@@ -676,13 +676,13 @@
       </x:c>
     </x:row>
     <x:row r="35">
-      <x:c r="A35" s="2" t="str">
+      <x:c r="A35" s="2" t="n">
         <x:v>34</x:v>
       </x:c>
       <x:c r="B35" s="2" t="str">
         <x:v>Text with "quotes"</x:v>
       </x:c>
-      <x:c r="C35" s="2" t="str">
+      <x:c r="C35" s="2" t="n">
         <x:v>914.58</x:v>
       </x:c>
       <x:c r="D35" s="2" t="str">
@@ -693,13 +693,13 @@
       </x:c>
     </x:row>
     <x:row r="36">
-      <x:c r="A36" s="2" t="str">
+      <x:c r="A36" s="2" t="n">
         <x:v>35</x:v>
       </x:c>
       <x:c r="B36" s="2" t="str">
         <x:v>Hello, world</x:v>
       </x:c>
-      <x:c r="C36" s="2" t="str">
+      <x:c r="C36" s="2" t="n">
         <x:v>135.21</x:v>
       </x:c>
       <x:c r="D36" s="2" t="str">
@@ -710,13 +710,13 @@
       </x:c>
     </x:row>
     <x:row r="37">
-      <x:c r="A37" s="2" t="str">
+      <x:c r="A37" s="2" t="n">
         <x:v>36</x:v>
       </x:c>
       <x:c r="B37" s="2" t="str">
         <x:v>Value with, comma</x:v>
       </x:c>
-      <x:c r="C37" s="2" t="str">
+      <x:c r="C37" s="2" t="n">
         <x:v>633.32</x:v>
       </x:c>
       <x:c r="D37" s="2" t="str">
@@ -727,13 +727,13 @@
       </x:c>
     </x:row>
     <x:row r="38">
-      <x:c r="A38" s="2" t="str">
+      <x:c r="A38" s="2" t="n">
         <x:v>37</x:v>
       </x:c>
       <x:c r="B38" s="2" t="str">
         <x:v>Simple text</x:v>
       </x:c>
-      <x:c r="C38" s="2" t="str">
+      <x:c r="C38" s="2" t="n">
         <x:v>743.95</x:v>
       </x:c>
       <x:c r="D38" s="2" t="str">
@@ -744,13 +744,13 @@
       </x:c>
     </x:row>
     <x:row r="39">
-      <x:c r="A39" s="2" t="str">
+      <x:c r="A39" s="2" t="n">
         <x:v>38</x:v>
       </x:c>
       <x:c r="B39" s="2" t="str">
         <x:v>Hello, world</x:v>
       </x:c>
-      <x:c r="C39" s="2" t="str">
+      <x:c r="C39" s="2" t="n">
         <x:v>455.23</x:v>
       </x:c>
       <x:c r="D39" s="2" t="str">
@@ -761,7 +761,7 @@
       </x:c>
     </x:row>
     <x:row r="40">
-      <x:c r="A40" s="2" t="str">
+      <x:c r="A40" s="2" t="n">
         <x:v>39</x:v>
       </x:c>
       <x:c r="B40" s="2" t="str">
@@ -778,13 +778,13 @@
       </x:c>
     </x:row>
     <x:row r="41">
-      <x:c r="A41" s="2" t="str">
+      <x:c r="A41" s="2" t="n">
         <x:v>40</x:v>
       </x:c>
       <x:c r="B41" s="2" t="str">
         <x:v>Comma, then "quote"</x:v>
       </x:c>
-      <x:c r="C41" s="2" t="str">
+      <x:c r="C41" s="2" t="n">
         <x:v>331.61</x:v>
       </x:c>
       <x:c r="D41" s="2" t="str">
@@ -795,13 +795,13 @@
       </x:c>
     </x:row>
     <x:row r="42">
-      <x:c r="A42" s="2" t="str">
+      <x:c r="A42" s="2" t="n">
         <x:v>41</x:v>
       </x:c>
       <x:c r="B42" s="2" t="str">
         <x:v>Comma, then "quote"</x:v>
       </x:c>
-      <x:c r="C42" s="2" t="str">
+      <x:c r="C42" s="2" t="n">
         <x:v>113.73</x:v>
       </x:c>
       <x:c r="D42" s="2" t="str">
@@ -812,13 +812,13 @@
       </x:c>
     </x:row>
     <x:row r="43">
-      <x:c r="A43" s="2" t="str">
+      <x:c r="A43" s="2" t="n">
         <x:v>42</x:v>
       </x:c>
       <x:c r="B43" s="2" t="str">
         <x:v>Plain</x:v>
       </x:c>
-      <x:c r="C43" s="2" t="str">
+      <x:c r="C43" s="2" t="n">
         <x:v>346.68</x:v>
       </x:c>
       <x:c r="D43" s="2" t="str">
@@ -829,13 +829,13 @@
       </x:c>
     </x:row>
     <x:row r="44">
-      <x:c r="A44" s="2" t="str">
+      <x:c r="A44" s="2" t="n">
         <x:v>43</x:v>
       </x:c>
       <x:c r="B44" s="2" t="str">
         <x:v>Mixed, "comma and quotes"</x:v>
       </x:c>
-      <x:c r="C44" s="2" t="str">
+      <x:c r="C44" s="2" t="n">
         <x:v>211.24</x:v>
       </x:c>
       <x:c r="D44" s="2" t="str">
@@ -846,13 +846,13 @@
       </x:c>
     </x:row>
     <x:row r="45">
-      <x:c r="A45" s="2" t="str">
+      <x:c r="A45" s="2" t="n">
         <x:v>44</x:v>
       </x:c>
       <x:c r="B45" s="2" t="str">
         <x:v>"Quoted" at start</x:v>
       </x:c>
-      <x:c r="C45" s="2" t="str">
+      <x:c r="C45" s="2" t="n">
         <x:v>52.59</x:v>
       </x:c>
       <x:c r="D45" s="2" t="str">
@@ -863,7 +863,7 @@
       </x:c>
     </x:row>
     <x:row r="46">
-      <x:c r="A46" s="2" t="str">
+      <x:c r="A46" s="2" t="n">
         <x:v>45</x:v>
       </x:c>
       <x:c r="B46" s="2" t="str">
@@ -880,13 +880,13 @@
       </x:c>
     </x:row>
     <x:row r="47">
-      <x:c r="A47" s="2" t="str">
+      <x:c r="A47" s="2" t="n">
         <x:v>46</x:v>
       </x:c>
       <x:c r="B47" s="2" t="str">
         <x:v>Another value</x:v>
       </x:c>
-      <x:c r="C47" s="2" t="str">
+      <x:c r="C47" s="2" t="n">
         <x:v>568.98</x:v>
       </x:c>
       <x:c r="D47" s="2" t="str">
@@ -897,13 +897,13 @@
       </x:c>
     </x:row>
     <x:row r="48">
-      <x:c r="A48" s="2" t="str">
+      <x:c r="A48" s="2" t="n">
         <x:v>47</x:v>
       </x:c>
       <x:c r="B48" s="2" t="str">
         <x:v>Value with, comma</x:v>
       </x:c>
-      <x:c r="C48" s="2" t="str">
+      <x:c r="C48" s="2" t="n">
         <x:v>347.73</x:v>
       </x:c>
       <x:c r="D48" s="2" t="str">
@@ -914,13 +914,13 @@
       </x:c>
     </x:row>
     <x:row r="49">
-      <x:c r="A49" s="2" t="str">
+      <x:c r="A49" s="2" t="n">
         <x:v>48</x:v>
       </x:c>
       <x:c r="B49" s="2" t="str">
         <x:v>Text with "quotes"</x:v>
       </x:c>
-      <x:c r="C49" s="2" t="str">
+      <x:c r="C49" s="2" t="n">
         <x:v>788.22</x:v>
       </x:c>
       <x:c r="D49" s="2" t="str">
@@ -931,13 +931,13 @@
       </x:c>
     </x:row>
     <x:row r="50">
-      <x:c r="A50" s="2" t="str">
+      <x:c r="A50" s="2" t="n">
         <x:v>49</x:v>
       </x:c>
       <x:c r="B50" s="2" t="str">
         <x:v>"Quoted" at start</x:v>
       </x:c>
-      <x:c r="C50" s="2" t="str">
+      <x:c r="C50" s="2" t="n">
         <x:v>779.18</x:v>
       </x:c>
       <x:c r="D50" s="2" t="str">
@@ -948,13 +948,13 @@
       </x:c>
     </x:row>
     <x:row r="51">
-      <x:c r="A51" s="2" t="str">
+      <x:c r="A51" s="2" t="n">
         <x:v>50</x:v>
       </x:c>
       <x:c r="B51" s="2" t="str">
         <x:v>Hello, world</x:v>
       </x:c>
-      <x:c r="C51" s="2" t="str">
+      <x:c r="C51" s="2" t="n">
         <x:v>401.86</x:v>
       </x:c>
       <x:c r="D51" s="2" t="str">
@@ -965,13 +965,13 @@
       </x:c>
     </x:row>
     <x:row r="52">
-      <x:c r="A52" s="2" t="str">
+      <x:c r="A52" s="2" t="n">
         <x:v>51</x:v>
       </x:c>
       <x:c r="B52" s="2" t="str">
         <x:v>Text with "quotes"</x:v>
       </x:c>
-      <x:c r="C52" s="2" t="str">
+      <x:c r="C52" s="2" t="n">
         <x:v>613.65</x:v>
       </x:c>
       <x:c r="D52" s="2" t="str">
@@ -982,13 +982,13 @@
       </x:c>
     </x:row>
     <x:row r="53">
-      <x:c r="A53" s="2" t="str">
+      <x:c r="A53" s="2" t="n">
         <x:v>52</x:v>
       </x:c>
       <x:c r="B53" s="2" t="str">
         <x:v>Hello, world</x:v>
       </x:c>
-      <x:c r="C53" s="2" t="str">
+      <x:c r="C53" s="2" t="n">
         <x:v>698.82</x:v>
       </x:c>
       <x:c r="D53" s="2" t="str">
@@ -999,7 +999,7 @@
       </x:c>
     </x:row>
     <x:row r="54">
-      <x:c r="A54" s="2" t="str">
+      <x:c r="A54" s="2" t="n">
         <x:v>53</x:v>
       </x:c>
       <x:c r="B54" s="2" t="str">
@@ -1016,7 +1016,7 @@
       </x:c>
     </x:row>
     <x:row r="55">
-      <x:c r="A55" s="2" t="str">
+      <x:c r="A55" s="2" t="n">
         <x:v>54</x:v>
       </x:c>
       <x:c r="B55" s="2" t="str">
@@ -1033,13 +1033,13 @@
       </x:c>
     </x:row>
     <x:row r="56">
-      <x:c r="A56" s="2" t="str">
+      <x:c r="A56" s="2" t="n">
         <x:v>55</x:v>
       </x:c>
       <x:c r="B56" s="2" t="str">
         <x:v>Mixed, "comma and quotes"</x:v>
       </x:c>
-      <x:c r="C56" s="2" t="str">
+      <x:c r="C56" s="2" t="n">
         <x:v>822.27</x:v>
       </x:c>
       <x:c r="D56" s="2" t="str">
@@ -1050,13 +1050,13 @@
       </x:c>
     </x:row>
     <x:row r="57">
-      <x:c r="A57" s="2" t="str">
+      <x:c r="A57" s="2" t="n">
         <x:v>56</x:v>
       </x:c>
       <x:c r="B57" s="2" t="str">
         <x:v>Simple text</x:v>
       </x:c>
-      <x:c r="C57" s="2" t="str">
+      <x:c r="C57" s="2" t="n">
         <x:v>843.21</x:v>
       </x:c>
       <x:c r="D57" s="2" t="str">
@@ -1067,7 +1067,7 @@
       </x:c>
     </x:row>
     <x:row r="58">
-      <x:c r="A58" s="2" t="str">
+      <x:c r="A58" s="2" t="n">
         <x:v>57</x:v>
       </x:c>
       <x:c r="B58" s="2" t="str">
@@ -1084,13 +1084,13 @@
       </x:c>
     </x:row>
     <x:row r="59">
-      <x:c r="A59" s="2" t="str">
+      <x:c r="A59" s="2" t="n">
         <x:v>58</x:v>
       </x:c>
       <x:c r="B59" s="2" t="str">
         <x:v>Hello, world</x:v>
       </x:c>
-      <x:c r="C59" s="2" t="str">
+      <x:c r="C59" s="2" t="n">
         <x:v>78.47</x:v>
       </x:c>
       <x:c r="D59" s="2" t="str">
@@ -1101,7 +1101,7 @@
       </x:c>
     </x:row>
     <x:row r="60">
-      <x:c r="A60" s="2" t="str">
+      <x:c r="A60" s="2" t="n">
         <x:v>59</x:v>
       </x:c>
       <x:c r="B60" s="2" t="str">
@@ -1118,13 +1118,13 @@
       </x:c>
     </x:row>
     <x:row r="61">
-      <x:c r="A61" s="2" t="str">
+      <x:c r="A61" s="2" t="n">
         <x:v>60</x:v>
       </x:c>
       <x:c r="B61" s="2" t="str">
         <x:v>"Quoted" at start</x:v>
       </x:c>
-      <x:c r="C61" s="2" t="str">
+      <x:c r="C61" s="2" t="n">
         <x:v>61.09</x:v>
       </x:c>
       <x:c r="D61" s="2" t="str">
@@ -1135,13 +1135,13 @@
       </x:c>
     </x:row>
     <x:row r="62">
-      <x:c r="A62" s="2" t="str">
+      <x:c r="A62" s="2" t="n">
         <x:v>61</x:v>
       </x:c>
       <x:c r="B62" s="2" t="str">
         <x:v>Value with, comma</x:v>
       </x:c>
-      <x:c r="C62" s="2" t="str">
+      <x:c r="C62" s="2" t="n">
         <x:v>470.89</x:v>
       </x:c>
       <x:c r="D62" s="2" t="str">
@@ -1152,13 +1152,13 @@
       </x:c>
     </x:row>
     <x:row r="63">
-      <x:c r="A63" s="2" t="str">
+      <x:c r="A63" s="2" t="n">
         <x:v>62</x:v>
       </x:c>
       <x:c r="B63" s="2" t="str">
         <x:v>Ends with quote"</x:v>
       </x:c>
-      <x:c r="C63" s="2" t="str">
+      <x:c r="C63" s="2" t="n">
         <x:v>273.26</x:v>
       </x:c>
       <x:c r="D63" s="2" t="str">
@@ -1169,7 +1169,7 @@
       </x:c>
     </x:row>
     <x:row r="64">
-      <x:c r="A64" s="2" t="str">
+      <x:c r="A64" s="2" t="n">
         <x:v>63</x:v>
       </x:c>
       <x:c r="B64" s="2" t="str">
@@ -1186,13 +1186,13 @@
       </x:c>
     </x:row>
     <x:row r="65">
-      <x:c r="A65" s="2" t="str">
+      <x:c r="A65" s="2" t="n">
         <x:v>64</x:v>
       </x:c>
       <x:c r="B65" s="2" t="str">
         <x:v>Plain</x:v>
       </x:c>
-      <x:c r="C65" s="2" t="str">
+      <x:c r="C65" s="2" t="n">
         <x:v>906.41</x:v>
       </x:c>
       <x:c r="D65" s="2" t="str">
@@ -1203,13 +1203,13 @@
       </x:c>
     </x:row>
     <x:row r="66">
-      <x:c r="A66" s="2" t="str">
+      <x:c r="A66" s="2" t="n">
         <x:v>65</x:v>
       </x:c>
       <x:c r="B66" s="2" t="str">
         <x:v>Simple text</x:v>
       </x:c>
-      <x:c r="C66" s="2" t="str">
+      <x:c r="C66" s="2" t="n">
         <x:v>190.38</x:v>
       </x:c>
       <x:c r="D66" s="2" t="str">
@@ -1220,13 +1220,13 @@
       </x:c>
     </x:row>
     <x:row r="67">
-      <x:c r="A67" s="2" t="str">
+      <x:c r="A67" s="2" t="n">
         <x:v>66</x:v>
       </x:c>
       <x:c r="B67" s="2" t="str">
         <x:v>Ends with quote"</x:v>
       </x:c>
-      <x:c r="C67" s="2" t="str">
+      <x:c r="C67" s="2" t="n">
         <x:v>736.42</x:v>
       </x:c>
       <x:c r="D67" s="2" t="str">
@@ -1237,7 +1237,7 @@
       </x:c>
     </x:row>
     <x:row r="68">
-      <x:c r="A68" s="2" t="str">
+      <x:c r="A68" s="2" t="n">
         <x:v>67</x:v>
       </x:c>
       <x:c r="B68" s="2" t="str">
@@ -1254,13 +1254,13 @@
       </x:c>
     </x:row>
     <x:row r="69">
-      <x:c r="A69" s="2" t="str">
+      <x:c r="A69" s="2" t="n">
         <x:v>68</x:v>
       </x:c>
       <x:c r="B69" s="2" t="str">
         <x:v>Hello, world</x:v>
       </x:c>
-      <x:c r="C69" s="2" t="str">
+      <x:c r="C69" s="2" t="n">
         <x:v>892.62</x:v>
       </x:c>
       <x:c r="D69" s="2" t="str">
@@ -1271,7 +1271,7 @@
       </x:c>
     </x:row>
     <x:row r="70">
-      <x:c r="A70" s="2" t="str">
+      <x:c r="A70" s="2" t="n">
         <x:v>69</x:v>
       </x:c>
       <x:c r="B70" s="2" t="str">
@@ -1288,13 +1288,13 @@
       </x:c>
     </x:row>
     <x:row r="71">
-      <x:c r="A71" s="2" t="str">
+      <x:c r="A71" s="2" t="n">
         <x:v>70</x:v>
       </x:c>
       <x:c r="B71" s="2" t="str">
         <x:v>Hello, world</x:v>
       </x:c>
-      <x:c r="C71" s="2" t="str">
+      <x:c r="C71" s="2" t="n">
         <x:v>732.55</x:v>
       </x:c>
       <x:c r="D71" s="2" t="str">
@@ -1305,13 +1305,13 @@
       </x:c>
     </x:row>
     <x:row r="72">
-      <x:c r="A72" s="2" t="str">
+      <x:c r="A72" s="2" t="n">
         <x:v>71</x:v>
       </x:c>
       <x:c r="B72" s="2" t="str">
         <x:v>Another value</x:v>
       </x:c>
-      <x:c r="C72" s="2" t="str">
+      <x:c r="C72" s="2" t="n">
         <x:v>292.24</x:v>
       </x:c>
       <x:c r="D72" s="2" t="str">
@@ -1322,13 +1322,13 @@
       </x:c>
     </x:row>
     <x:row r="73">
-      <x:c r="A73" s="2" t="str">
+      <x:c r="A73" s="2" t="n">
         <x:v>72</x:v>
       </x:c>
       <x:c r="B73" s="2" t="str">
         <x:v>"Quoted" at start</x:v>
       </x:c>
-      <x:c r="C73" s="2" t="str">
+      <x:c r="C73" s="2" t="n">
         <x:v>52.97</x:v>
       </x:c>
       <x:c r="D73" s="2" t="str">
@@ -1339,13 +1339,13 @@
       </x:c>
     </x:row>
     <x:row r="74">
-      <x:c r="A74" s="2" t="str">
+      <x:c r="A74" s="2" t="n">
         <x:v>73</x:v>
       </x:c>
       <x:c r="B74" s="2" t="str">
         <x:v>Text with "quotes"</x:v>
       </x:c>
-      <x:c r="C74" s="2" t="str">
+      <x:c r="C74" s="2" t="n">
         <x:v>206.26</x:v>
       </x:c>
       <x:c r="D74" s="2" t="str">
@@ -1356,13 +1356,13 @@
       </x:c>
     </x:row>
     <x:row r="75">
-      <x:c r="A75" s="2" t="str">
+      <x:c r="A75" s="2" t="n">
         <x:v>74</x:v>
       </x:c>
       <x:c r="B75" s="2" t="str">
         <x:v>Text with "quotes"</x:v>
       </x:c>
-      <x:c r="C75" s="2" t="str">
+      <x:c r="C75" s="2" t="n">
         <x:v>766.22</x:v>
       </x:c>
       <x:c r="D75" s="2" t="str">
@@ -1373,7 +1373,7 @@
       </x:c>
     </x:row>
     <x:row r="76">
-      <x:c r="A76" s="2" t="str">
+      <x:c r="A76" s="2" t="n">
         <x:v>75</x:v>
       </x:c>
       <x:c r="B76" s="2" t="str">
@@ -1390,13 +1390,13 @@
       </x:c>
     </x:row>
     <x:row r="77">
-      <x:c r="A77" s="2" t="str">
+      <x:c r="A77" s="2" t="n">
         <x:v>76</x:v>
       </x:c>
       <x:c r="B77" s="2" t="str">
         <x:v>Another value</x:v>
       </x:c>
-      <x:c r="C77" s="2" t="str">
+      <x:c r="C77" s="2" t="n">
         <x:v>532.53</x:v>
       </x:c>
       <x:c r="D77" s="2" t="str">
@@ -1407,13 +1407,13 @@
       </x:c>
     </x:row>
     <x:row r="78">
-      <x:c r="A78" s="2" t="str">
+      <x:c r="A78" s="2" t="n">
         <x:v>77</x:v>
       </x:c>
       <x:c r="B78" s="2" t="str">
         <x:v>Plain</x:v>
       </x:c>
-      <x:c r="C78" s="2" t="str">
+      <x:c r="C78" s="2" t="n">
         <x:v>549.51</x:v>
       </x:c>
       <x:c r="D78" s="2" t="str">
@@ -1424,13 +1424,13 @@
       </x:c>
     </x:row>
     <x:row r="79">
-      <x:c r="A79" s="2" t="str">
+      <x:c r="A79" s="2" t="n">
         <x:v>78</x:v>
       </x:c>
       <x:c r="B79" s="2" t="str">
         <x:v>Comma, then "quote"</x:v>
       </x:c>
-      <x:c r="C79" s="2" t="str">
+      <x:c r="C79" s="2" t="n">
         <x:v>941.48</x:v>
       </x:c>
       <x:c r="D79" s="2" t="str">
@@ -1441,13 +1441,13 @@
       </x:c>
     </x:row>
     <x:row r="80">
-      <x:c r="A80" s="2" t="str">
+      <x:c r="A80" s="2" t="n">
         <x:v>79</x:v>
       </x:c>
       <x:c r="B80" s="2" t="str">
         <x:v>"Quoted" at start</x:v>
       </x:c>
-      <x:c r="C80" s="2" t="str">
+      <x:c r="C80" s="2" t="n">
         <x:v>799.79</x:v>
       </x:c>
       <x:c r="D80" s="2" t="str">
@@ -1458,13 +1458,13 @@
       </x:c>
     </x:row>
     <x:row r="81">
-      <x:c r="A81" s="2" t="str">
+      <x:c r="A81" s="2" t="n">
         <x:v>80</x:v>
       </x:c>
       <x:c r="B81" s="2" t="str">
         <x:v>Simple text</x:v>
       </x:c>
-      <x:c r="C81" s="2" t="str">
+      <x:c r="C81" s="2" t="n">
         <x:v>574.31</x:v>
       </x:c>
       <x:c r="D81" s="2" t="str">
@@ -1475,13 +1475,13 @@
       </x:c>
     </x:row>
     <x:row r="82">
-      <x:c r="A82" s="2" t="str">
+      <x:c r="A82" s="2" t="n">
         <x:v>81</x:v>
       </x:c>
       <x:c r="B82" s="2" t="str">
         <x:v>Hello, world</x:v>
       </x:c>
-      <x:c r="C82" s="2" t="str">
+      <x:c r="C82" s="2" t="n">
         <x:v>162.31</x:v>
       </x:c>
       <x:c r="D82" s="2" t="str">
@@ -1492,13 +1492,13 @@
       </x:c>
     </x:row>
     <x:row r="83">
-      <x:c r="A83" s="2" t="str">
+      <x:c r="A83" s="2" t="n">
         <x:v>82</x:v>
       </x:c>
       <x:c r="B83" s="2" t="str">
         <x:v>Mixed, "comma and quotes"</x:v>
       </x:c>
-      <x:c r="C83" s="2" t="str">
+      <x:c r="C83" s="2" t="n">
         <x:v>977.17</x:v>
       </x:c>
       <x:c r="D83" s="2" t="str">
@@ -1509,13 +1509,13 @@
       </x:c>
     </x:row>
     <x:row r="84">
-      <x:c r="A84" s="2" t="str">
+      <x:c r="A84" s="2" t="n">
         <x:v>83</x:v>
       </x:c>
       <x:c r="B84" s="2" t="str">
         <x:v>Mixed, "comma and quotes"</x:v>
       </x:c>
-      <x:c r="C84" s="2" t="str">
+      <x:c r="C84" s="2" t="n">
         <x:v>82.71</x:v>
       </x:c>
       <x:c r="D84" s="2" t="str">
@@ -1526,13 +1526,13 @@
       </x:c>
     </x:row>
     <x:row r="85">
-      <x:c r="A85" s="2" t="str">
+      <x:c r="A85" s="2" t="n">
         <x:v>84</x:v>
       </x:c>
       <x:c r="B85" s="2" t="str">
         <x:v>"Quoted" at start</x:v>
       </x:c>
-      <x:c r="C85" s="2" t="str">
+      <x:c r="C85" s="2" t="n">
         <x:v>659.65</x:v>
       </x:c>
       <x:c r="D85" s="2" t="str">
@@ -1543,13 +1543,13 @@
       </x:c>
     </x:row>
     <x:row r="86">
-      <x:c r="A86" s="2" t="str">
+      <x:c r="A86" s="2" t="n">
         <x:v>85</x:v>
       </x:c>
       <x:c r="B86" s="2" t="str">
         <x:v>Mixed, "comma and quotes"</x:v>
       </x:c>
-      <x:c r="C86" s="2" t="str">
+      <x:c r="C86" s="2" t="n">
         <x:v>733.46</x:v>
       </x:c>
       <x:c r="D86" s="2" t="str">
@@ -1560,13 +1560,13 @@
       </x:c>
     </x:row>
     <x:row r="87">
-      <x:c r="A87" s="2" t="str">
+      <x:c r="A87" s="2" t="n">
         <x:v>86</x:v>
       </x:c>
       <x:c r="B87" s="2" t="str">
         <x:v>Text with "quotes"</x:v>
       </x:c>
-      <x:c r="C87" s="2" t="str">
+      <x:c r="C87" s="2" t="n">
         <x:v>311.14</x:v>
       </x:c>
       <x:c r="D87" s="2" t="str">
@@ -1577,13 +1577,13 @@
       </x:c>
     </x:row>
     <x:row r="88">
-      <x:c r="A88" s="2" t="str">
+      <x:c r="A88" s="2" t="n">
         <x:v>87</x:v>
       </x:c>
       <x:c r="B88" s="2" t="str">
         <x:v>Mixed, "comma and quotes"</x:v>
       </x:c>
-      <x:c r="C88" s="2" t="str">
+      <x:c r="C88" s="2" t="n">
         <x:v>520.34</x:v>
       </x:c>
       <x:c r="D88" s="2" t="str">
@@ -1594,13 +1594,13 @@
       </x:c>
     </x:row>
     <x:row r="89">
-      <x:c r="A89" s="2" t="str">
+      <x:c r="A89" s="2" t="n">
         <x:v>88</x:v>
       </x:c>
       <x:c r="B89" s="2" t="str">
         <x:v>Ends with quote"</x:v>
       </x:c>
-      <x:c r="C89" s="2" t="str">
+      <x:c r="C89" s="2" t="n">
         <x:v>232.68</x:v>
       </x:c>
       <x:c r="D89" s="2" t="str">
@@ -1611,13 +1611,13 @@
       </x:c>
     </x:row>
     <x:row r="90">
-      <x:c r="A90" s="2" t="str">
+      <x:c r="A90" s="2" t="n">
         <x:v>89</x:v>
       </x:c>
       <x:c r="B90" s="2" t="str">
         <x:v>"Quoted" at start</x:v>
       </x:c>
-      <x:c r="C90" s="2" t="str">
+      <x:c r="C90" s="2" t="n">
         <x:v>396.77</x:v>
       </x:c>
       <x:c r="D90" s="2" t="str">
@@ -1628,13 +1628,13 @@
       </x:c>
     </x:row>
     <x:row r="91">
-      <x:c r="A91" s="2" t="str">
+      <x:c r="A91" s="2" t="n">
         <x:v>90</x:v>
       </x:c>
       <x:c r="B91" s="2" t="str">
         <x:v>Value with, comma</x:v>
       </x:c>
-      <x:c r="C91" s="2" t="str">
+      <x:c r="C91" s="2" t="n">
         <x:v>983.83</x:v>
       </x:c>
       <x:c r="D91" s="2" t="str">
@@ -1645,13 +1645,13 @@
       </x:c>
     </x:row>
     <x:row r="92">
-      <x:c r="A92" s="2" t="str">
+      <x:c r="A92" s="2" t="n">
         <x:v>91</x:v>
       </x:c>
       <x:c r="B92" s="2" t="str">
         <x:v>Another value</x:v>
       </x:c>
-      <x:c r="C92" s="2" t="str">
+      <x:c r="C92" s="2" t="n">
         <x:v>147.83</x:v>
       </x:c>
       <x:c r="D92" s="2" t="str">
@@ -1662,7 +1662,7 @@
       </x:c>
     </x:row>
     <x:row r="93">
-      <x:c r="A93" s="2" t="str">
+      <x:c r="A93" s="2" t="n">
         <x:v>92</x:v>
       </x:c>
       <x:c r="B93" s="2" t="str">
@@ -1679,13 +1679,13 @@
       </x:c>
     </x:row>
     <x:row r="94">
-      <x:c r="A94" s="2" t="str">
+      <x:c r="A94" s="2" t="n">
         <x:v>93</x:v>
       </x:c>
       <x:c r="B94" s="2" t="str">
         <x:v>Ends with quote"</x:v>
       </x:c>
-      <x:c r="C94" s="2" t="str">
+      <x:c r="C94" s="2" t="n">
         <x:v>525.66</x:v>
       </x:c>
       <x:c r="D94" s="2" t="str">
@@ -1696,13 +1696,13 @@
       </x:c>
     </x:row>
     <x:row r="95">
-      <x:c r="A95" s="2" t="str">
+      <x:c r="A95" s="2" t="n">
         <x:v>94</x:v>
       </x:c>
       <x:c r="B95" s="2" t="str">
         <x:v>Mixed, "comma and quotes"</x:v>
       </x:c>
-      <x:c r="C95" s="2" t="str">
+      <x:c r="C95" s="2" t="n">
         <x:v>396.68</x:v>
       </x:c>
       <x:c r="D95" s="2" t="str">
@@ -1713,7 +1713,7 @@
       </x:c>
     </x:row>
     <x:row r="96">
-      <x:c r="A96" s="2" t="str">
+      <x:c r="A96" s="2" t="n">
         <x:v>95</x:v>
       </x:c>
       <x:c r="B96" s="2" t="str">
@@ -1730,13 +1730,13 @@
       </x:c>
     </x:row>
     <x:row r="97">
-      <x:c r="A97" s="2" t="str">
+      <x:c r="A97" s="2" t="n">
         <x:v>96</x:v>
       </x:c>
       <x:c r="B97" s="2" t="str">
         <x:v>Value with, comma</x:v>
       </x:c>
-      <x:c r="C97" s="2" t="str">
+      <x:c r="C97" s="2" t="n">
         <x:v>782.71</x:v>
       </x:c>
       <x:c r="D97" s="2" t="str">
@@ -1747,7 +1747,7 @@
       </x:c>
     </x:row>
     <x:row r="98">
-      <x:c r="A98" s="2" t="str">
+      <x:c r="A98" s="2" t="n">
         <x:v>97</x:v>
       </x:c>
       <x:c r="B98" s="2" t="str">
@@ -1764,13 +1764,13 @@
       </x:c>
     </x:row>
     <x:row r="99">
-      <x:c r="A99" s="2" t="str">
+      <x:c r="A99" s="2" t="n">
         <x:v>98</x:v>
       </x:c>
       <x:c r="B99" s="2" t="str">
         <x:v>Simple text</x:v>
       </x:c>
-      <x:c r="C99" s="2" t="str">
+      <x:c r="C99" s="2" t="n">
         <x:v>170.94</x:v>
       </x:c>
       <x:c r="D99" s="2" t="str">
@@ -1781,13 +1781,13 @@
       </x:c>
     </x:row>
     <x:row r="100">
-      <x:c r="A100" s="2" t="str">
+      <x:c r="A100" s="2" t="n">
         <x:v>99</x:v>
       </x:c>
       <x:c r="B100" s="2" t="str">
         <x:v>Simple text</x:v>
       </x:c>
-      <x:c r="C100" s="2" t="str">
+      <x:c r="C100" s="2" t="n">
         <x:v>107.23</x:v>
       </x:c>
       <x:c r="D100" s="2" t="str">
@@ -1798,13 +1798,13 @@
       </x:c>
     </x:row>
     <x:row r="101">
-      <x:c r="A101" s="2" t="str">
+      <x:c r="A101" s="2" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="B101" s="2" t="str">
         <x:v>"Quoted" at start</x:v>
       </x:c>
-      <x:c r="C101" s="2" t="str">
+      <x:c r="C101" s="2" t="n">
         <x:v>937.59</x:v>
       </x:c>
       <x:c r="D101" s="2" t="str">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/71_CsvWithoutHeader.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/71_CsvWithoutHeader.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV No Header" sheetId="1" r:id="R227dc716e1724e6a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV No Header" sheetId="1" r:id="R13602e27af754cf1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/71_CsvWithoutHeader.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/71_CsvWithoutHeader.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV No Header" sheetId="1" r:id="R13602e27af754cf1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV No Header" sheetId="1" r:id="Ra64993fb06724efb"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/71_CsvWithoutHeader.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/71_CsvWithoutHeader.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV No Header" sheetId="1" r:id="Ra64993fb06724efb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV No Header" sheetId="1" r:id="R5a5970c4b4f64175"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/71_CsvWithoutHeader.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/71_CsvWithoutHeader.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV No Header" sheetId="1" r:id="R5a5970c4b4f64175"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV No Header" sheetId="1" r:id="Re50863a941564793"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/71_CsvWithoutHeader.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/71_CsvWithoutHeader.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV No Header" sheetId="1" r:id="Re50863a941564793"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV No Header" sheetId="1" r:id="Rfb22f8e677914071"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/71_CsvWithoutHeader.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/71_CsvWithoutHeader.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV No Header" sheetId="1" r:id="Rfb22f8e677914071"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV No Header" sheetId="1" r:id="R5b0c676ad6304e83"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/71_CsvWithoutHeader.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/71_CsvWithoutHeader.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV No Header" sheetId="1" r:id="R5b0c676ad6304e83"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV No Header" sheetId="1" r:id="R90818665673c4a5a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/71_CsvWithoutHeader.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/71_CsvWithoutHeader.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV No Header" sheetId="1" r:id="R90818665673c4a5a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV No Header" sheetId="1" r:id="Re50a06920fc44b2b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/71_CsvWithoutHeader.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/71_CsvWithoutHeader.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV No Header" sheetId="1" r:id="Re50a06920fc44b2b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV No Header" sheetId="1" r:id="R291ef2e33e444400"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/71_CsvWithoutHeader.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/71_CsvWithoutHeader.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV No Header" sheetId="1" r:id="R291ef2e33e444400"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV No Header" sheetId="1" r:id="R9da89401fd224a37"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/71_CsvWithoutHeader.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/71_CsvWithoutHeader.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV No Header" sheetId="1" r:id="R9da89401fd224a37"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV No Header" sheetId="1" r:id="R49220a0300a747b4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/71_CsvWithoutHeader.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/71_CsvWithoutHeader.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV No Header" sheetId="1" r:id="R49220a0300a747b4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV No Header" sheetId="1" r:id="Rafcdf65b106d43f9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/71_CsvWithoutHeader.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/71_CsvWithoutHeader.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV No Header" sheetId="1" r:id="Rafcdf65b106d43f9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV No Header" sheetId="1" r:id="R117b4d6f936541f3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/71_CsvWithoutHeader.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/71_CsvWithoutHeader.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV No Header" sheetId="1" r:id="R117b4d6f936541f3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV No Header" sheetId="1" r:id="Ra1354c2b43454366"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
